--- a/Sorteio Times Futebol/Versão Flask Funcional - BD/bancodedados.xlsx
+++ b/Sorteio Times Futebol/Versão Flask Funcional - BD/bancodedados.xlsx
@@ -6,19 +6,19 @@
     <sheet state="visible" name="Planilha1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Planilha1!$A$1:$G$63</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Planilha1!$A$1:$G$90</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="lnWYVropYjJLfaiqmYvpFizeJdfgtfG+WzgwZnwzjzo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Pjg69TsaHtDflFU/9CfRj5Q/cgpDGjz+fMHFvcHim9A="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -65,213 +65,213 @@
     <t>nenhum</t>
   </si>
   <si>
+    <t>Betinho</t>
+  </si>
+  <si>
+    <t>Bruno Pessoa</t>
+  </si>
+  <si>
+    <t>Dato</t>
+  </si>
+  <si>
+    <t>Diego Rocha</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Flávio</t>
+  </si>
+  <si>
+    <t>Kiel</t>
+  </si>
+  <si>
+    <t>Lucas H.</t>
+  </si>
+  <si>
+    <t>Lucas S.</t>
+  </si>
+  <si>
+    <t>Manga</t>
+  </si>
+  <si>
+    <t>Marcelinho</t>
+  </si>
+  <si>
+    <t>Paulo Thiago</t>
+  </si>
+  <si>
+    <t>Raphael B.</t>
+  </si>
+  <si>
+    <t>Teixa</t>
+  </si>
+  <si>
+    <t>Thiago Alemão</t>
+  </si>
+  <si>
+    <t>Victor Chaves</t>
+  </si>
+  <si>
+    <t>Vinicius</t>
+  </si>
+  <si>
+    <t>Claudino</t>
+  </si>
+  <si>
+    <t>Grimauro</t>
+  </si>
+  <si>
+    <t>Ícaro Feitosa</t>
+  </si>
+  <si>
+    <t>Juninho</t>
+  </si>
+  <si>
+    <t>Léo A.</t>
+  </si>
+  <si>
+    <t>Marcos S.</t>
+  </si>
+  <si>
+    <t>Rafa Ribeiro</t>
+  </si>
+  <si>
+    <t>qualquer</t>
+  </si>
+  <si>
+    <t>Sérgio Falcão</t>
+  </si>
+  <si>
+    <t>Túlio</t>
+  </si>
+  <si>
+    <t>Carlinhos</t>
+  </si>
+  <si>
+    <t>Pou</t>
+  </si>
+  <si>
+    <t>Bidu</t>
+  </si>
+  <si>
+    <t>diarista</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Niclaudio</t>
+  </si>
+  <si>
+    <t>Victor Assis</t>
+  </si>
+  <si>
+    <t>Vitor S.</t>
+  </si>
+  <si>
+    <t>Balbino</t>
+  </si>
+  <si>
+    <t>Cadu</t>
+  </si>
+  <si>
+    <t>Chistopher</t>
+  </si>
+  <si>
+    <t>Dudu</t>
+  </si>
+  <si>
+    <t>Duduzinho</t>
+  </si>
+  <si>
+    <t>Elvis</t>
+  </si>
+  <si>
+    <t>Felipe Melo</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Henrique Silva</t>
+  </si>
+  <si>
+    <t>Henrique Souza</t>
+  </si>
+  <si>
+    <t>Italo</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Lázaro</t>
+  </si>
+  <si>
+    <t>Lucas P.</t>
+  </si>
+  <si>
+    <t>Matheus</t>
+  </si>
+  <si>
+    <t>Nagibio</t>
+  </si>
+  <si>
+    <t>Nestor</t>
+  </si>
+  <si>
+    <t>Neto</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Pedro PiuPiu</t>
+  </si>
+  <si>
+    <t>Renan</t>
+  </si>
+  <si>
+    <t>Ronaldinho</t>
+  </si>
+  <si>
+    <t>Teffinho</t>
+  </si>
+  <si>
+    <t>Teteca</t>
+  </si>
+  <si>
+    <t>Vinicinho</t>
+  </si>
+  <si>
+    <t>Xandinho</t>
+  </si>
+  <si>
+    <t>Flavio U.</t>
+  </si>
+  <si>
+    <t>Thayan</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Guilherme</t>
+  </si>
+  <si>
     <t>Arthur</t>
   </si>
   <si>
-    <t>diarista</t>
-  </si>
-  <si>
-    <t>Balbino</t>
-  </si>
-  <si>
-    <t>qualquer</t>
-  </si>
-  <si>
-    <t>Betinho</t>
-  </si>
-  <si>
-    <t>Bidu</t>
-  </si>
-  <si>
-    <t>Bruno Pessoa</t>
-  </si>
-  <si>
-    <t>Cadu</t>
-  </si>
-  <si>
-    <t>Chistopher</t>
-  </si>
-  <si>
-    <t>Claudino</t>
-  </si>
-  <si>
-    <t>Dato</t>
-  </si>
-  <si>
-    <t>Diego Rocha</t>
-  </si>
-  <si>
-    <t>Dudu</t>
-  </si>
-  <si>
-    <t>Duduzinho</t>
-  </si>
-  <si>
-    <t>Eduardo</t>
-  </si>
-  <si>
-    <t>Elvis</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>Felipe Melo</t>
-  </si>
-  <si>
-    <t>Flávio</t>
-  </si>
-  <si>
-    <t>Flavio U.</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Grimauro</t>
-  </si>
-  <si>
-    <t>Henrique Silva</t>
-  </si>
-  <si>
-    <t>Henrique Souza</t>
-  </si>
-  <si>
-    <t>Ícaro Feitosa</t>
-  </si>
-  <si>
-    <t>Italo</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Jefferson</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Juninho</t>
-  </si>
-  <si>
-    <t>Kiel</t>
-  </si>
-  <si>
-    <t>Lázaro</t>
-  </si>
-  <si>
-    <t>Léo A.</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Lucas H.</t>
-  </si>
-  <si>
-    <t>Lucas P.</t>
-  </si>
-  <si>
-    <t>Lucas S.</t>
-  </si>
-  <si>
-    <t>Manga</t>
-  </si>
-  <si>
-    <t>Marcelinho</t>
-  </si>
-  <si>
-    <t>Marcos S.</t>
-  </si>
-  <si>
-    <t>Matheus</t>
-  </si>
-  <si>
-    <t>Nagibio</t>
-  </si>
-  <si>
-    <t>Nestor</t>
-  </si>
-  <si>
-    <t>Neto</t>
-  </si>
-  <si>
-    <t>Niclaudio</t>
-  </si>
-  <si>
-    <t>Pablo</t>
-  </si>
-  <si>
-    <t>Paulo Thiago</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Pou</t>
-  </si>
-  <si>
-    <t>Rafa Ribeiro</t>
-  </si>
-  <si>
-    <t>Raphael B.</t>
-  </si>
-  <si>
-    <t>Renan</t>
-  </si>
-  <si>
-    <t>Ronaldinho</t>
-  </si>
-  <si>
     <t>Serginho V.</t>
   </si>
   <si>
-    <t>Sérgio Falcão</t>
-  </si>
-  <si>
-    <t>Teffinho</t>
-  </si>
-  <si>
-    <t>Teixa</t>
-  </si>
-  <si>
-    <t>Thiago Alemão</t>
-  </si>
-  <si>
-    <t>Victor Assis</t>
-  </si>
-  <si>
-    <t>Victor Chaves</t>
-  </si>
-  <si>
-    <t>Vinicius</t>
-  </si>
-  <si>
-    <t>Vitor S.</t>
-  </si>
-  <si>
-    <t>Teteca</t>
-  </si>
-  <si>
-    <t>Túlio</t>
-  </si>
-  <si>
-    <t>Vinicinho</t>
-  </si>
-  <si>
-    <t>Xandinho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thayan </t>
-  </si>
-  <si>
-    <t>Carlinhos</t>
-  </si>
-  <si>
-    <t>Guilherme</t>
-  </si>
-  <si>
     <t>Julius Rocha</t>
   </si>
   <si>
@@ -284,7 +284,7 @@
     <t>Vitinho</t>
   </si>
   <si>
-    <t>João Victor</t>
+    <t>João Vitor</t>
   </si>
   <si>
     <t>Cauã</t>
@@ -296,10 +296,40 @@
     <t>Stive</t>
   </si>
   <si>
-    <t>Gui</t>
+    <t>Gui Lima</t>
   </si>
   <si>
     <t>Elder</t>
+  </si>
+  <si>
+    <t>Paullo Silva</t>
+  </si>
+  <si>
+    <t>Filep</t>
+  </si>
+  <si>
+    <t>Felipinho</t>
+  </si>
+  <si>
+    <t>Thiago Sultanum</t>
+  </si>
+  <si>
+    <t>Luís</t>
+  </si>
+  <si>
+    <t>Bruno Correia</t>
+  </si>
+  <si>
+    <t>Caio Victor</t>
+  </si>
+  <si>
+    <t>Pedro Henrique</t>
+  </si>
+  <si>
+    <t>Maradona</t>
+  </si>
+  <si>
+    <t>Eduardo Duca</t>
   </si>
 </sst>
 </file>
@@ -598,11 +628,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="6.0"/>
-    <col customWidth="1" min="2" max="2" width="14.43"/>
+    <col customWidth="1" min="2" max="2" width="15.43"/>
     <col customWidth="1" min="3" max="3" width="14.86"/>
     <col customWidth="1" min="4" max="4" width="21.86"/>
     <col customWidth="1" min="5" max="5" width="24.29"/>
-    <col customWidth="1" min="6" max="6" width="11.43"/>
+    <col customWidth="1" min="6" max="6" width="16.0"/>
     <col customWidth="1" min="7" max="7" width="11.0"/>
     <col customWidth="1" min="8" max="26" width="8.71"/>
   </cols>
@@ -661,7 +691,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="3">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>13</v>
@@ -677,46 +707,46 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
-        <v>65.0</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>16</v>
+      <c r="C5" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
@@ -724,19 +754,19 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3">
         <v>3.0</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4.0</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>10</v>
@@ -747,13 +777,13 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
-        <v>4.0</v>
+        <v>4.5</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
@@ -770,10 +800,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3">
         <v>4.0</v>
@@ -782,7 +812,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>10</v>
@@ -792,46 +822,46 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
-        <v>26.0</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>16</v>
+      <c r="A9" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
-        <v>27.0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>16</v>
+      <c r="A10" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>11</v>
@@ -839,19 +869,19 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>28.0</v>
+        <v>12.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>10</v>
@@ -862,19 +892,19 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>10</v>
@@ -885,19 +915,19 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3">
-        <v>5.0</v>
+        <v>4.5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>10</v>
@@ -907,46 +937,46 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5">
-        <v>29.0</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>16</v>
+      <c r="A14" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>16</v>
+      <c r="A15" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>11</v>
@@ -954,19 +984,19 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3">
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>10</v>
@@ -976,23 +1006,23 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5">
-        <v>31.0</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>16</v>
+      <c r="A17" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>11</v>
@@ -1000,16 +1030,16 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>9.0</v>
+        <v>20.0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3">
-        <v>3.5</v>
+        <v>2.0</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>14</v>
@@ -1022,23 +1052,23 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5">
-        <v>32.0</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="A19" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3">
         <v>3.0</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>16</v>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>11</v>
@@ -1046,19 +1076,19 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3">
-        <v>3.5</v>
+        <v>5.0</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>10</v>
@@ -1068,46 +1098,46 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="5">
-        <v>63.0</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>16</v>
+      <c r="A21" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="5">
-        <v>33.0</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>16</v>
+      <c r="A22" s="3">
+        <v>34.0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>11</v>
@@ -1115,19 +1145,19 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="3">
-        <v>2.5</v>
+        <v>5.0</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>10</v>
@@ -1137,68 +1167,68 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="5">
-        <v>35.0</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="3">
+        <v>42.0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="3">
+        <v>44.0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="5">
+        <v>46.0</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="5">
-        <v>36.0</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3">
-        <v>37.0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="C26" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -1207,45 +1237,45 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="5">
-        <v>38.0</v>
+        <v>54.0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="5">
-        <v>39.0</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>16</v>
+      <c r="A28" s="3">
+        <v>57.0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>11</v>
@@ -1253,67 +1283,67 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="5">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>64.0</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="C30" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="5">
+        <v>53.0</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="5">
-        <v>41.0</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3">
-        <v>42.0</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -1322,45 +1352,45 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="3">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3">
-        <v>4.5</v>
+        <v>4.0</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="5">
-        <v>43.0</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>3.5</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>16</v>
+      <c r="E33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>11</v>
@@ -1368,45 +1398,45 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3">
-        <v>44.0</v>
+        <v>16.0</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="3">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="5">
-        <v>64.0</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="C35" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>11</v>
@@ -1414,22 +1444,22 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>10</v>
+      <c r="F36" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>11</v>
@@ -1437,91 +1467,91 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="5">
-        <v>45.0</v>
+        <v>25.0</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="5">
         <v>3.5</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="D39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>10</v>
+      <c r="F39" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="5">
+        <v>29.0</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>10</v>
+      <c r="C40" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>11</v>
@@ -1529,22 +1559,22 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="5">
-        <v>46.0</v>
+        <v>30.0</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="5">
-        <v>3.5</v>
+        <v>5.0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>11</v>
@@ -1552,22 +1582,22 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="5">
-        <v>47.0</v>
+        <v>31.0</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="5">
-        <v>4.5</v>
+        <v>4.0</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>11</v>
@@ -1575,22 +1605,22 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="5">
-        <v>48.0</v>
+        <v>32.0</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C43" s="5">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>11</v>
@@ -1598,22 +1628,22 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="5">
-        <v>49.0</v>
+        <v>33.0</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="5">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>11</v>
@@ -1621,45 +1651,45 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="5">
-        <v>50.0</v>
+        <v>35.0</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="5">
-        <v>3.5</v>
+        <v>4.0</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="5">
+        <v>36.0</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>10</v>
+      <c r="F46" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>11</v>
@@ -1667,45 +1697,45 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="5">
-        <v>51.0</v>
+        <v>38.0</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="5">
+        <v>39.0</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>10</v>
+      <c r="C48" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>11</v>
@@ -1713,22 +1743,22 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="5">
-        <v>52.0</v>
+        <v>40.0</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="5">
-        <v>4.5</v>
+        <v>4.0</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="F49" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>11</v>
@@ -1736,22 +1766,22 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="5">
-        <v>53.0</v>
+        <v>41.0</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C50" s="5">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>11</v>
@@ -1759,45 +1789,45 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="5">
-        <v>54.0</v>
+        <v>43.0</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="5">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>10</v>
+      <c r="F52" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>11</v>
@@ -1805,13 +1835,13 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="5">
-        <v>55.0</v>
+        <v>47.0</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="5">
-        <v>5.0</v>
+        <v>4.5</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>9</v>
@@ -1820,7 +1850,7 @@
         <v>8</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>11</v>
@@ -1828,7 +1858,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="5">
-        <v>56.0</v>
+        <v>48.0</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>67</v>
@@ -1840,10 +1870,10 @@
         <v>9</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>11</v>
@@ -1851,45 +1881,45 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="5">
-        <v>66.0</v>
+        <v>49.0</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C55" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="3">
-        <v>57.0</v>
-      </c>
-      <c r="B56" s="4" t="s">
+      <c r="A56" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>10</v>
+      <c r="C56" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>11</v>
@@ -1897,160 +1927,160 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="5">
-        <v>58.0</v>
+        <v>51.0</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="A58" s="5">
+        <v>52.0</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5">
+        <v>55.0</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5">
+        <v>56.0</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="5">
+        <v>58.0</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="5">
+        <v>59.0</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="5">
         <v>3.0</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="4" t="s">
+      <c r="D62" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>10</v>
+      <c r="F62" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="3">
-        <v>24.0</v>
-      </c>
-      <c r="B63" s="4" t="s">
+      <c r="A63" s="5">
+        <v>61.0</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="5">
         <v>4.0</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>10</v>
+      <c r="D63" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>11</v>
@@ -2058,22 +2088,22 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="5">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>11</v>
@@ -2081,7 +2111,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="5">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>78</v>
@@ -2090,36 +2120,36 @@
         <v>3.5</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="5">
-        <v>61.0</v>
-      </c>
-      <c r="B66" s="6" t="s">
+      <c r="A66" s="7">
+        <v>63.0</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="7">
         <v>4.0</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>16</v>
+      <c r="D66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>11</v>
@@ -2127,22 +2157,22 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="5">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C67" s="5">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>11</v>
@@ -2150,68 +2180,68 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="7">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C68" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="5">
+        <v>65.0</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="5">
+        <v>66.0</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="5">
         <v>3.0</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="7">
-        <v>64.0</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="7">
-        <v>65.0</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>16</v>
+      <c r="D70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>11</v>
@@ -2228,13 +2258,13 @@
         <v>3.5</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>11</v>
@@ -2257,7 +2287,7 @@
         <v>14</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>11</v>
@@ -2271,7 +2301,7 @@
         <v>86</v>
       </c>
       <c r="C73" s="7">
-        <v>1.0</v>
+        <v>2.5</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>13</v>
@@ -2280,7 +2310,7 @@
         <v>14</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>11</v>
@@ -2297,13 +2327,13 @@
         <v>2.5</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>11</v>
@@ -2320,13 +2350,13 @@
         <v>4.0</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>11</v>
@@ -2348,8 +2378,8 @@
       <c r="E76" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>10</v>
+      <c r="F76" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>11</v>
@@ -2366,13 +2396,13 @@
         <v>4.0</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>11</v>
@@ -2395,7 +2425,7 @@
         <v>14</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>11</v>
@@ -2409,16 +2439,16 @@
         <v>92</v>
       </c>
       <c r="C79" s="7">
-        <v>4.5</v>
+        <v>5.0</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>11</v>
@@ -2435,28 +2465,248 @@
         <v>3.5</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E80" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="7">
+        <v>76.0</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="7">
+        <v>77.0</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>78.0</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="7">
+        <v>79.0</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>81.0</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F80" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
+      <c r="F85" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="7">
+        <v>82.0</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="7">
+        <v>83.0</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>84.0</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="7">
+        <v>85.0</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>86.0</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="91" ht="15.75" customHeight="1"/>
     <row r="92" ht="15.75" customHeight="1"/>
     <row r="93" ht="15.75" customHeight="1"/>
@@ -3368,15 +3618,28 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$G$63">
-    <sortState ref="A1:G63">
-      <sortCondition ref="B1:B63"/>
-      <sortCondition ref="A1:A63"/>
-      <sortCondition descending="1" ref="C1:C63"/>
-      <sortCondition descending="1" ref="F1:F63"/>
+  <autoFilter ref="$A$1:$G$90">
+    <sortState ref="A1:G90">
+      <sortCondition descending="1" ref="F1:F90"/>
+      <sortCondition ref="A1:A90"/>
+      <sortCondition descending="1" ref="D1:D90"/>
+      <sortCondition ref="B1:B90"/>
+      <sortCondition descending="1" ref="C1:C90"/>
     </sortState>
   </autoFilter>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F90">
+      <formula1>"mensalista,diarista"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D88 D89:E89 D90">
+      <formula1>"meia,zagueiro,atacante,qualquer"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E88 E90">
+      <formula1>"atacante,nenhum,meia,zagueiro,qualquer"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions/>
   <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
   <pageSetup orientation="landscape"/>
